--- a/outputs/c/_chicken_both.xlsx
+++ b/outputs/c/_chicken_both.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="188">
   <si>
     <t>participant</t>
   </si>
@@ -48,9 +48,6 @@
     <t>place_2</t>
   </si>
   <si>
-    <t>activity</t>
-  </si>
-  <si>
     <t>activity 2</t>
   </si>
   <si>
@@ -579,7 +576,13 @@
     <t>50M 36S</t>
   </si>
   <si>
-    <t>uniq</t>
+    <t>activity_1</t>
+  </si>
+  <si>
+    <t>type_1</t>
+  </si>
+  <si>
+    <t>type_2</t>
   </si>
 </sst>
 </file>
@@ -1396,7 +1399,7 @@
   <dimension ref="A1:Y86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="M1" sqref="M1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,19 +1439,19 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="N1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q1" t="s">
         <v>0</v>
@@ -1457,7 +1460,7 @@
         <v>1</v>
       </c>
       <c r="S1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T1" t="s">
         <v>2</v>
@@ -1475,7 +1478,7 @@
         <v>6</v>
       </c>
       <c r="Y1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -1486,7 +1489,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>32</v>
@@ -1498,34 +1501,34 @@
         <v>256</v>
       </c>
       <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q2">
         <v>1</v>
       </c>
       <c r="R2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T2">
         <v>2</v>
@@ -1537,13 +1540,13 @@
         <v>16</v>
       </c>
       <c r="W2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" t="s">
         <v>20</v>
       </c>
-      <c r="X2" t="s">
-        <v>21</v>
-      </c>
       <c r="Y2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -1554,7 +1557,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>50</v>
@@ -1566,22 +1569,22 @@
         <v>600</v>
       </c>
       <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1590,7 +1593,7 @@
         <v>7</v>
       </c>
       <c r="R3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -1605,13 +1608,13 @@
         <v>300</v>
       </c>
       <c r="W3" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" t="s">
         <v>27</v>
       </c>
-      <c r="X3" t="s">
-        <v>28</v>
-      </c>
       <c r="Y3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -1622,7 +1625,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>77</v>
@@ -1634,22 +1637,22 @@
         <v>518</v>
       </c>
       <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
         <v>30</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>17</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>31</v>
-      </c>
-      <c r="L4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" t="s">
-        <v>32</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1658,7 +1661,7 @@
         <v>9</v>
       </c>
       <c r="R4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -1673,13 +1676,13 @@
         <v>116</v>
       </c>
       <c r="W4" t="s">
+        <v>32</v>
+      </c>
+      <c r="X4" t="s">
         <v>33</v>
       </c>
-      <c r="X4" t="s">
-        <v>34</v>
-      </c>
       <c r="Y4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -1690,7 +1693,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>29</v>
@@ -1702,19 +1705,19 @@
         <v>190</v>
       </c>
       <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
         <v>35</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" t="s">
         <v>36</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" t="s">
-        <v>37</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1723,7 +1726,7 @@
         <v>16</v>
       </c>
       <c r="R5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1738,13 +1741,13 @@
         <v>118</v>
       </c>
       <c r="W5" t="s">
+        <v>37</v>
+      </c>
+      <c r="X5" t="s">
         <v>38</v>
       </c>
-      <c r="X5" t="s">
-        <v>39</v>
-      </c>
       <c r="Y5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -1755,7 +1758,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>111</v>
@@ -1767,19 +1770,19 @@
         <v>792</v>
       </c>
       <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
         <v>40</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
         <v>41</v>
       </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" t="s">
-        <v>42</v>
-      </c>
       <c r="M6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1788,7 +1791,7 @@
         <v>20</v>
       </c>
       <c r="R6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1803,13 +1806,13 @@
         <v>98</v>
       </c>
       <c r="W6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X6" t="s">
         <v>43</v>
       </c>
-      <c r="X6" t="s">
-        <v>44</v>
-      </c>
       <c r="Y6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -1820,7 +1823,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -1832,19 +1835,19 @@
         <v>80</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
         <v>47</v>
       </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" t="s">
-        <v>48</v>
-      </c>
       <c r="M7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1853,10 +1856,10 @@
         <v>3</v>
       </c>
       <c r="R7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T7">
         <v>7</v>
@@ -1868,13 +1871,13 @@
         <v>58</v>
       </c>
       <c r="W7" t="s">
+        <v>49</v>
+      </c>
+      <c r="X7" t="s">
         <v>50</v>
       </c>
-      <c r="X7" t="s">
-        <v>51</v>
-      </c>
       <c r="Y7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -1882,16 +1885,16 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -1900,10 +1903,10 @@
         <v>3</v>
       </c>
       <c r="R8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T8">
         <v>8</v>
@@ -1915,13 +1918,13 @@
         <v>50</v>
       </c>
       <c r="W8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -1932,7 +1935,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9">
         <v>30</v>
@@ -1944,19 +1947,19 @@
         <v>1156</v>
       </c>
       <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" t="s">
         <v>52</v>
       </c>
-      <c r="H9" t="s">
-        <v>53</v>
-      </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1965,7 +1968,7 @@
         <v>5</v>
       </c>
       <c r="R9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1980,13 +1983,13 @@
         <v>400</v>
       </c>
       <c r="W9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X9" t="s">
         <v>60</v>
       </c>
-      <c r="X9" t="s">
-        <v>61</v>
-      </c>
       <c r="Y9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -1997,7 +2000,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10">
         <v>26</v>
@@ -2009,19 +2012,19 @@
         <v>768</v>
       </c>
       <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" t="s">
         <v>56</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>57</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>58</v>
       </c>
-      <c r="K10" t="s">
-        <v>59</v>
-      </c>
       <c r="M10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -2030,10 +2033,10 @@
         <v>6</v>
       </c>
       <c r="R10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T10">
         <v>5</v>
@@ -2045,13 +2048,13 @@
         <v>52</v>
       </c>
       <c r="W10" t="s">
+        <v>65</v>
+      </c>
+      <c r="X10" t="s">
         <v>66</v>
       </c>
-      <c r="X10" t="s">
-        <v>67</v>
-      </c>
       <c r="Y10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -2062,7 +2065,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11">
         <v>343</v>
@@ -2074,25 +2077,25 @@
         <v>5126</v>
       </c>
       <c r="G11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" t="s">
         <v>62</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" t="s">
         <v>63</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>58</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>64</v>
       </c>
-      <c r="K11" t="s">
-        <v>59</v>
-      </c>
-      <c r="L11" t="s">
-        <v>65</v>
-      </c>
       <c r="M11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N11">
         <v>2</v>
@@ -2101,10 +2104,10 @@
         <v>6</v>
       </c>
       <c r="R11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T11">
         <v>6</v>
@@ -2116,13 +2119,13 @@
         <v>52</v>
       </c>
       <c r="W11" t="s">
+        <v>65</v>
+      </c>
+      <c r="X11" t="s">
         <v>66</v>
       </c>
-      <c r="X11" t="s">
-        <v>67</v>
-      </c>
       <c r="Y11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -2133,7 +2136,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12">
         <v>311</v>
@@ -2145,25 +2148,25 @@
         <v>2962</v>
       </c>
       <c r="G12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" t="s">
         <v>68</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
         <v>69</v>
       </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>70</v>
       </c>
-      <c r="K12" t="s">
-        <v>71</v>
-      </c>
       <c r="L12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -2172,7 +2175,7 @@
         <v>11</v>
       </c>
       <c r="R12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S12">
         <v>1</v>
@@ -2187,13 +2190,13 @@
         <v>140</v>
       </c>
       <c r="W12" t="s">
+        <v>73</v>
+      </c>
+      <c r="X12" t="s">
         <v>74</v>
       </c>
-      <c r="X12" t="s">
-        <v>75</v>
-      </c>
       <c r="Y12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -2204,7 +2207,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13">
         <v>482</v>
@@ -2216,25 +2219,25 @@
         <v>4430</v>
       </c>
       <c r="G13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" t="s">
         <v>72</v>
       </c>
-      <c r="H13" t="s">
-        <v>73</v>
-      </c>
       <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" t="s">
         <v>17</v>
       </c>
-      <c r="J13" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" t="s">
-        <v>18</v>
-      </c>
       <c r="L13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N13">
         <v>2</v>
@@ -2243,7 +2246,7 @@
         <v>11</v>
       </c>
       <c r="R13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S13">
         <v>2</v>
@@ -2258,13 +2261,13 @@
         <v>1802</v>
       </c>
       <c r="W13" t="s">
+        <v>79</v>
+      </c>
+      <c r="X13" t="s">
         <v>80</v>
       </c>
-      <c r="X13" t="s">
-        <v>81</v>
-      </c>
       <c r="Y13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -2272,22 +2275,22 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" t="s">
         <v>70</v>
       </c>
-      <c r="K14" t="s">
-        <v>71</v>
-      </c>
       <c r="L14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N14">
         <v>3</v>
@@ -2296,7 +2299,7 @@
         <v>11</v>
       </c>
       <c r="R14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S14">
         <v>3</v>
@@ -2311,13 +2314,13 @@
         <v>3444</v>
       </c>
       <c r="W14" t="s">
+        <v>83</v>
+      </c>
+      <c r="X14" t="s">
         <v>84</v>
       </c>
-      <c r="X14" t="s">
-        <v>85</v>
-      </c>
       <c r="Y14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -2328,7 +2331,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15">
         <v>30</v>
@@ -2340,22 +2343,22 @@
         <v>156</v>
       </c>
       <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s">
         <v>76</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" t="s">
         <v>77</v>
       </c>
-      <c r="I15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>78</v>
       </c>
-      <c r="L15" t="s">
-        <v>79</v>
-      </c>
       <c r="M15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2364,7 +2367,7 @@
         <v>13</v>
       </c>
       <c r="R15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -2379,13 +2382,13 @@
         <v>84</v>
       </c>
       <c r="W15" t="s">
+        <v>86</v>
+      </c>
+      <c r="X15" t="s">
         <v>87</v>
       </c>
-      <c r="X15" t="s">
-        <v>88</v>
-      </c>
       <c r="Y15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -2396,7 +2399,7 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16">
         <v>337</v>
@@ -2408,19 +2411,19 @@
         <v>2808</v>
       </c>
       <c r="G16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" t="s">
         <v>82</v>
       </c>
-      <c r="H16" t="s">
-        <v>83</v>
-      </c>
       <c r="I16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2429,7 +2432,7 @@
         <v>19</v>
       </c>
       <c r="R16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2444,13 +2447,13 @@
         <v>2668</v>
       </c>
       <c r="W16" t="s">
+        <v>88</v>
+      </c>
+      <c r="X16" t="s">
         <v>89</v>
       </c>
-      <c r="X16" t="s">
-        <v>90</v>
-      </c>
       <c r="Y16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2458,25 +2461,25 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2487,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -2499,10 +2502,10 @@
         <v>16</v>
       </c>
       <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" t="s">
         <v>20</v>
-      </c>
-      <c r="H18" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2513,7 +2516,7 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19">
         <v>43</v>
@@ -2525,10 +2528,10 @@
         <v>300</v>
       </c>
       <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
         <v>27</v>
-      </c>
-      <c r="H19" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2539,7 +2542,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>75</v>
@@ -2551,10 +2554,10 @@
         <v>990</v>
       </c>
       <c r="G20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" t="s">
         <v>91</v>
-      </c>
-      <c r="H20" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2565,7 +2568,7 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21">
         <v>89</v>
@@ -2577,10 +2580,10 @@
         <v>1102</v>
       </c>
       <c r="G21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" t="s">
         <v>93</v>
-      </c>
-      <c r="H21" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2591,7 +2594,7 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22">
         <v>14</v>
@@ -2603,10 +2606,10 @@
         <v>116</v>
       </c>
       <c r="G22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" t="s">
         <v>33</v>
-      </c>
-      <c r="H22" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2617,7 +2620,7 @@
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23">
         <v>15</v>
@@ -2629,10 +2632,10 @@
         <v>120</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2643,7 +2646,7 @@
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24">
         <v>177</v>
@@ -2655,10 +2658,10 @@
         <v>1298</v>
       </c>
       <c r="G24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" t="s">
         <v>96</v>
-      </c>
-      <c r="H24" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2669,7 +2672,7 @@
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25">
         <v>188</v>
@@ -2681,10 +2684,10 @@
         <v>1374</v>
       </c>
       <c r="G25" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" t="s">
         <v>98</v>
-      </c>
-      <c r="H25" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2695,7 +2698,7 @@
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26">
         <v>193</v>
@@ -2707,10 +2710,10 @@
         <v>1410</v>
       </c>
       <c r="G26" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" t="s">
         <v>100</v>
-      </c>
-      <c r="H26" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2721,7 +2724,7 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27">
         <v>207</v>
@@ -2733,10 +2736,10 @@
         <v>1442</v>
       </c>
       <c r="G27" t="s">
+        <v>101</v>
+      </c>
+      <c r="H27" t="s">
         <v>102</v>
-      </c>
-      <c r="H27" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2747,7 +2750,7 @@
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28">
         <v>227</v>
@@ -2759,10 +2762,10 @@
         <v>1546</v>
       </c>
       <c r="G28" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" t="s">
         <v>104</v>
-      </c>
-      <c r="H28" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2773,7 +2776,7 @@
         <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29">
         <v>11</v>
@@ -2785,10 +2788,10 @@
         <v>118</v>
       </c>
       <c r="G29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" t="s">
         <v>38</v>
-      </c>
-      <c r="H29" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2799,7 +2802,7 @@
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30">
         <v>15</v>
@@ -2811,10 +2814,10 @@
         <v>130</v>
       </c>
       <c r="G30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2825,7 +2828,7 @@
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31">
         <v>19</v>
@@ -2837,10 +2840,10 @@
         <v>140</v>
       </c>
       <c r="G31" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" t="s">
         <v>74</v>
-      </c>
-      <c r="H31" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2851,7 +2854,7 @@
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32">
         <v>25</v>
@@ -2863,10 +2866,10 @@
         <v>164</v>
       </c>
       <c r="G32" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32" t="s">
         <v>107</v>
-      </c>
-      <c r="H32" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2877,7 +2880,7 @@
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33">
         <v>33</v>
@@ -2889,10 +2892,10 @@
         <v>246</v>
       </c>
       <c r="G33" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33" t="s">
         <v>109</v>
-      </c>
-      <c r="H33" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2903,7 +2906,7 @@
         <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34">
         <v>12</v>
@@ -2915,10 +2918,10 @@
         <v>98</v>
       </c>
       <c r="G34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" t="s">
         <v>43</v>
-      </c>
-      <c r="H34" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2929,7 +2932,7 @@
         <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35">
         <v>46</v>
@@ -2941,10 +2944,10 @@
         <v>282</v>
       </c>
       <c r="G35" t="s">
+        <v>110</v>
+      </c>
+      <c r="H35" t="s">
         <v>111</v>
-      </c>
-      <c r="H35" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2955,7 +2958,7 @@
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36">
         <v>53</v>
@@ -2967,10 +2970,10 @@
         <v>306</v>
       </c>
       <c r="G36" t="s">
+        <v>112</v>
+      </c>
+      <c r="H36" t="s">
         <v>113</v>
-      </c>
-      <c r="H36" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2981,7 +2984,7 @@
         <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37">
         <v>93</v>
@@ -2993,10 +2996,10 @@
         <v>746</v>
       </c>
       <c r="G37" t="s">
+        <v>114</v>
+      </c>
+      <c r="H37" t="s">
         <v>115</v>
-      </c>
-      <c r="H37" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -3007,7 +3010,7 @@
         <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38">
         <v>129</v>
@@ -3019,10 +3022,10 @@
         <v>888</v>
       </c>
       <c r="G38" t="s">
+        <v>116</v>
+      </c>
+      <c r="H38" t="s">
         <v>117</v>
-      </c>
-      <c r="H38" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -3033,7 +3036,7 @@
         <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39">
         <v>132</v>
@@ -3045,10 +3048,10 @@
         <v>940</v>
       </c>
       <c r="G39" t="s">
+        <v>118</v>
+      </c>
+      <c r="H39" t="s">
         <v>119</v>
-      </c>
-      <c r="H39" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -3059,7 +3062,7 @@
         <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40">
         <v>134</v>
@@ -3071,10 +3074,10 @@
         <v>944</v>
       </c>
       <c r="G40" t="s">
+        <v>119</v>
+      </c>
+      <c r="H40" t="s">
         <v>120</v>
-      </c>
-      <c r="H40" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -3085,7 +3088,7 @@
         <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41">
         <v>226</v>
@@ -3097,10 +3100,10 @@
         <v>1688</v>
       </c>
       <c r="G41" t="s">
+        <v>121</v>
+      </c>
+      <c r="H41" t="s">
         <v>122</v>
-      </c>
-      <c r="H41" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -3111,7 +3114,7 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D42">
         <v>7</v>
@@ -3123,10 +3126,10 @@
         <v>58</v>
       </c>
       <c r="G42" t="s">
+        <v>49</v>
+      </c>
+      <c r="H42" t="s">
         <v>50</v>
-      </c>
-      <c r="H42" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -3137,7 +3140,7 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D43">
         <v>8</v>
@@ -3149,10 +3152,10 @@
         <v>50</v>
       </c>
       <c r="G43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -3163,7 +3166,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D44">
         <v>12</v>
@@ -3175,10 +3178,10 @@
         <v>106</v>
       </c>
       <c r="G44" t="s">
+        <v>123</v>
+      </c>
+      <c r="H44" t="s">
         <v>124</v>
-      </c>
-      <c r="H44" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -3189,7 +3192,7 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D45">
         <v>64</v>
@@ -3201,10 +3204,10 @@
         <v>1136</v>
       </c>
       <c r="G45" t="s">
+        <v>125</v>
+      </c>
+      <c r="H45" t="s">
         <v>126</v>
-      </c>
-      <c r="H45" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -3215,7 +3218,7 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D46">
         <v>109</v>
@@ -3227,10 +3230,10 @@
         <v>1636</v>
       </c>
       <c r="G46" t="s">
+        <v>127</v>
+      </c>
+      <c r="H46" t="s">
         <v>128</v>
-      </c>
-      <c r="H46" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -3241,7 +3244,7 @@
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D47">
         <v>15</v>
@@ -3253,10 +3256,10 @@
         <v>400</v>
       </c>
       <c r="G47" t="s">
+        <v>59</v>
+      </c>
+      <c r="H47" t="s">
         <v>60</v>
-      </c>
-      <c r="H47" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -3267,7 +3270,7 @@
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D48">
         <v>22</v>
@@ -3279,10 +3282,10 @@
         <v>1048</v>
       </c>
       <c r="G48" t="s">
+        <v>129</v>
+      </c>
+      <c r="H48" t="s">
         <v>130</v>
-      </c>
-      <c r="H48" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -3293,7 +3296,7 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D49">
         <v>101</v>
@@ -3305,10 +3308,10 @@
         <v>2644</v>
       </c>
       <c r="G49" t="s">
+        <v>131</v>
+      </c>
+      <c r="H49" t="s">
         <v>132</v>
-      </c>
-      <c r="H49" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -3319,7 +3322,7 @@
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D50">
         <v>5</v>
@@ -3331,10 +3334,10 @@
         <v>52</v>
       </c>
       <c r="G50" t="s">
+        <v>65</v>
+      </c>
+      <c r="H50" t="s">
         <v>66</v>
-      </c>
-      <c r="H50" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -3345,7 +3348,7 @@
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D51">
         <v>6</v>
@@ -3357,10 +3360,10 @@
         <v>52</v>
       </c>
       <c r="G51" t="s">
+        <v>65</v>
+      </c>
+      <c r="H51" t="s">
         <v>66</v>
-      </c>
-      <c r="H51" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -3371,7 +3374,7 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D52">
         <v>10</v>
@@ -3383,10 +3386,10 @@
         <v>394</v>
       </c>
       <c r="G52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -3397,7 +3400,7 @@
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D53">
         <v>12</v>
@@ -3409,10 +3412,10 @@
         <v>418</v>
       </c>
       <c r="G53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -3423,7 +3426,7 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D54">
         <v>13</v>
@@ -3435,10 +3438,10 @@
         <v>436</v>
       </c>
       <c r="G54" t="s">
+        <v>135</v>
+      </c>
+      <c r="H54" t="s">
         <v>136</v>
-      </c>
-      <c r="H54" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -3449,7 +3452,7 @@
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D55">
         <v>16</v>
@@ -3461,10 +3464,10 @@
         <v>514</v>
       </c>
       <c r="G55" t="s">
+        <v>137</v>
+      </c>
+      <c r="H55" t="s">
         <v>138</v>
-      </c>
-      <c r="H55" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -3475,7 +3478,7 @@
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D56">
         <v>20</v>
@@ -3487,10 +3490,10 @@
         <v>740</v>
       </c>
       <c r="G56" t="s">
+        <v>139</v>
+      </c>
+      <c r="H56" t="s">
         <v>140</v>
-      </c>
-      <c r="H56" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -3501,7 +3504,7 @@
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D57">
         <v>25</v>
@@ -3513,10 +3516,10 @@
         <v>768</v>
       </c>
       <c r="G57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3527,7 +3530,7 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D58">
         <v>342</v>
@@ -3539,10 +3542,10 @@
         <v>5126</v>
       </c>
       <c r="G58" t="s">
+        <v>61</v>
+      </c>
+      <c r="H58" t="s">
         <v>62</v>
-      </c>
-      <c r="H58" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -3553,7 +3556,7 @@
         <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D59">
         <v>4</v>
@@ -3565,10 +3568,10 @@
         <v>140</v>
       </c>
       <c r="G59" t="s">
+        <v>73</v>
+      </c>
+      <c r="H59" t="s">
         <v>74</v>
-      </c>
-      <c r="H59" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -3579,7 +3582,7 @@
         <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D60">
         <v>134</v>
@@ -3591,10 +3594,10 @@
         <v>1574</v>
       </c>
       <c r="G60" t="s">
+        <v>142</v>
+      </c>
+      <c r="H60" t="s">
         <v>143</v>
-      </c>
-      <c r="H60" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -3605,7 +3608,7 @@
         <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D61">
         <v>140</v>
@@ -3617,10 +3620,10 @@
         <v>1592</v>
       </c>
       <c r="G61" t="s">
+        <v>144</v>
+      </c>
+      <c r="H61" t="s">
         <v>145</v>
-      </c>
-      <c r="H61" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -3631,7 +3634,7 @@
         <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D62">
         <v>142</v>
@@ -3643,10 +3646,10 @@
         <v>1626</v>
       </c>
       <c r="G62" t="s">
+        <v>146</v>
+      </c>
+      <c r="H62" t="s">
         <v>147</v>
-      </c>
-      <c r="H62" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -3657,7 +3660,7 @@
         <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D63">
         <v>147</v>
@@ -3669,10 +3672,10 @@
         <v>1762</v>
       </c>
       <c r="G63" t="s">
+        <v>148</v>
+      </c>
+      <c r="H63" t="s">
         <v>149</v>
-      </c>
-      <c r="H63" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -3683,7 +3686,7 @@
         <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D64">
         <v>152</v>
@@ -3695,10 +3698,10 @@
         <v>1802</v>
       </c>
       <c r="G64" t="s">
+        <v>79</v>
+      </c>
+      <c r="H64" t="s">
         <v>80</v>
-      </c>
-      <c r="H64" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -3709,7 +3712,7 @@
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D65">
         <v>154</v>
@@ -3721,10 +3724,10 @@
         <v>1802</v>
       </c>
       <c r="G65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -3735,7 +3738,7 @@
         <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D66">
         <v>292</v>
@@ -3747,10 +3750,10 @@
         <v>2686</v>
       </c>
       <c r="G66" t="s">
+        <v>151</v>
+      </c>
+      <c r="H66" t="s">
         <v>152</v>
-      </c>
-      <c r="H66" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -3761,7 +3764,7 @@
         <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D67">
         <v>326</v>
@@ -3773,10 +3776,10 @@
         <v>3062</v>
       </c>
       <c r="G67" t="s">
+        <v>153</v>
+      </c>
+      <c r="H67" t="s">
         <v>154</v>
-      </c>
-      <c r="H67" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3787,7 +3790,7 @@
         <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D68">
         <v>338</v>
@@ -3799,10 +3802,10 @@
         <v>3330</v>
       </c>
       <c r="G68" t="s">
+        <v>155</v>
+      </c>
+      <c r="H68" t="s">
         <v>156</v>
-      </c>
-      <c r="H68" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -3813,7 +3816,7 @@
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D69">
         <v>356</v>
@@ -3825,10 +3828,10 @@
         <v>3444</v>
       </c>
       <c r="G69" t="s">
+        <v>83</v>
+      </c>
+      <c r="H69" t="s">
         <v>84</v>
-      </c>
-      <c r="H69" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -3839,7 +3842,7 @@
         <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D70">
         <v>370</v>
@@ -3851,10 +3854,10 @@
         <v>3484</v>
       </c>
       <c r="G70" t="s">
+        <v>157</v>
+      </c>
+      <c r="H70" t="s">
         <v>158</v>
-      </c>
-      <c r="H70" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3865,7 +3868,7 @@
         <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D71">
         <v>386</v>
@@ -3877,10 +3880,10 @@
         <v>3590</v>
       </c>
       <c r="G71" t="s">
+        <v>159</v>
+      </c>
+      <c r="H71" t="s">
         <v>160</v>
-      </c>
-      <c r="H71" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -3891,7 +3894,7 @@
         <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D72">
         <v>390</v>
@@ -3903,10 +3906,10 @@
         <v>3682</v>
       </c>
       <c r="G72" t="s">
+        <v>161</v>
+      </c>
+      <c r="H72" t="s">
         <v>162</v>
-      </c>
-      <c r="H72" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -3917,7 +3920,7 @@
         <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D73">
         <v>433</v>
@@ -3929,10 +3932,10 @@
         <v>3974</v>
       </c>
       <c r="G73" t="s">
+        <v>163</v>
+      </c>
+      <c r="H73" t="s">
         <v>164</v>
-      </c>
-      <c r="H73" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -3943,7 +3946,7 @@
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D74">
         <v>449</v>
@@ -3955,10 +3958,10 @@
         <v>4122</v>
       </c>
       <c r="G74" t="s">
+        <v>165</v>
+      </c>
+      <c r="H74" t="s">
         <v>166</v>
-      </c>
-      <c r="H74" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -3969,7 +3972,7 @@
         <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D75">
         <v>460</v>
@@ -3981,10 +3984,10 @@
         <v>4256</v>
       </c>
       <c r="G75" t="s">
+        <v>167</v>
+      </c>
+      <c r="H75" t="s">
         <v>168</v>
-      </c>
-      <c r="H75" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -3995,7 +3998,7 @@
         <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D76">
         <v>596</v>
@@ -4007,10 +4010,10 @@
         <v>5138</v>
       </c>
       <c r="G76" t="s">
+        <v>169</v>
+      </c>
+      <c r="H76" t="s">
         <v>170</v>
-      </c>
-      <c r="H76" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -4021,7 +4024,7 @@
         <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D77">
         <v>11</v>
@@ -4033,10 +4036,10 @@
         <v>84</v>
       </c>
       <c r="G77" t="s">
+        <v>86</v>
+      </c>
+      <c r="H77" t="s">
         <v>87</v>
-      </c>
-      <c r="H77" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -4047,7 +4050,7 @@
         <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D78">
         <v>16</v>
@@ -4059,10 +4062,10 @@
         <v>100</v>
       </c>
       <c r="G78" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H78" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -4073,7 +4076,7 @@
         <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D79">
         <v>27</v>
@@ -4085,10 +4088,10 @@
         <v>132</v>
       </c>
       <c r="G79" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -4099,7 +4102,7 @@
         <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D80">
         <v>34</v>
@@ -4111,10 +4114,10 @@
         <v>202</v>
       </c>
       <c r="G80" t="s">
+        <v>173</v>
+      </c>
+      <c r="H80" t="s">
         <v>174</v>
-      </c>
-      <c r="H80" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -4125,7 +4128,7 @@
         <v>13</v>
       </c>
       <c r="C81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D81">
         <v>88</v>
@@ -4137,10 +4140,10 @@
         <v>404</v>
       </c>
       <c r="G81" t="s">
+        <v>175</v>
+      </c>
+      <c r="H81" t="s">
         <v>176</v>
-      </c>
-      <c r="H81" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -4151,7 +4154,7 @@
         <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D82">
         <v>94</v>
@@ -4163,10 +4166,10 @@
         <v>444</v>
       </c>
       <c r="G82" t="s">
+        <v>177</v>
+      </c>
+      <c r="H82" t="s">
         <v>178</v>
-      </c>
-      <c r="H82" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -4177,7 +4180,7 @@
         <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D83">
         <v>261</v>
@@ -4189,10 +4192,10 @@
         <v>1032</v>
       </c>
       <c r="G83" t="s">
+        <v>179</v>
+      </c>
+      <c r="H83" t="s">
         <v>180</v>
-      </c>
-      <c r="H83" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -4203,7 +4206,7 @@
         <v>19</v>
       </c>
       <c r="C84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D84">
         <v>310</v>
@@ -4215,10 +4218,10 @@
         <v>2668</v>
       </c>
       <c r="G84" t="s">
+        <v>88</v>
+      </c>
+      <c r="H84" t="s">
         <v>89</v>
-      </c>
-      <c r="H84" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -4229,7 +4232,7 @@
         <v>19</v>
       </c>
       <c r="C85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D85">
         <v>321</v>
@@ -4241,10 +4244,10 @@
         <v>2728</v>
       </c>
       <c r="G85" t="s">
+        <v>181</v>
+      </c>
+      <c r="H85" t="s">
         <v>182</v>
-      </c>
-      <c r="H85" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -4255,7 +4258,7 @@
         <v>19</v>
       </c>
       <c r="C86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D86">
         <v>351</v>
@@ -4267,10 +4270,10 @@
         <v>3036</v>
       </c>
       <c r="G86" t="s">
+        <v>183</v>
+      </c>
+      <c r="H86" t="s">
         <v>184</v>
-      </c>
-      <c r="H86" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
